--- a/data/pca/factorExposure/factorExposure_2010-03-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-31.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01609950390150618</v>
+        <v>-0.01707073495823799</v>
       </c>
       <c r="C2">
-        <v>-0.005308536312961416</v>
+        <v>-0.001026299166841147</v>
       </c>
       <c r="D2">
-        <v>0.01419044510869323</v>
+        <v>-0.008329326276063578</v>
       </c>
       <c r="E2">
-        <v>0.009540875572801791</v>
+        <v>-0.0001093462996681106</v>
       </c>
       <c r="F2">
-        <v>-0.01540338969552143</v>
+        <v>-0.01016409008040508</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1210405959980867</v>
+        <v>-0.09335761204070248</v>
       </c>
       <c r="C4">
-        <v>0.07029681940805203</v>
+        <v>-0.0161343121160186</v>
       </c>
       <c r="D4">
-        <v>0.007833423944340185</v>
+        <v>-0.08456857464544937</v>
       </c>
       <c r="E4">
-        <v>-0.00704652061744372</v>
+        <v>0.03073368735517231</v>
       </c>
       <c r="F4">
-        <v>0.006999373456178616</v>
+        <v>0.0311149625797435</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.120079350604335</v>
+        <v>-0.1549102369663303</v>
       </c>
       <c r="C6">
-        <v>-0.009299122151091464</v>
+        <v>-0.02467475333766314</v>
       </c>
       <c r="D6">
-        <v>0.01247869891217736</v>
+        <v>0.02266137823275144</v>
       </c>
       <c r="E6">
-        <v>0.02849762287997063</v>
+        <v>0.008627525063684426</v>
       </c>
       <c r="F6">
-        <v>0.05877916308844643</v>
+        <v>0.04841501464516199</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07510954519888095</v>
+        <v>-0.05905942902303386</v>
       </c>
       <c r="C7">
-        <v>0.06815194229381506</v>
+        <v>0.0007345830681361263</v>
       </c>
       <c r="D7">
-        <v>0.03390618219706495</v>
+        <v>-0.05227594106795236</v>
       </c>
       <c r="E7">
-        <v>0.02194946152466368</v>
+        <v>0.01540196242683783</v>
       </c>
       <c r="F7">
-        <v>-0.03552709403636287</v>
+        <v>0.04968306063498212</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0542212251376135</v>
+        <v>-0.05776883990460981</v>
       </c>
       <c r="C8">
-        <v>0.03024127639671917</v>
+        <v>0.01313060883233194</v>
       </c>
       <c r="D8">
-        <v>0.0180875846171187</v>
+        <v>-0.0325404120224992</v>
       </c>
       <c r="E8">
-        <v>-0.009153262545632382</v>
+        <v>0.01580131264116617</v>
       </c>
       <c r="F8">
-        <v>0.0264925428992834</v>
+        <v>-0.0296525886968242</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08591815130359658</v>
+        <v>-0.07119452848176824</v>
       </c>
       <c r="C9">
-        <v>0.05633681204938299</v>
+        <v>-0.01217228568813889</v>
       </c>
       <c r="D9">
-        <v>0.01540461386080136</v>
+        <v>-0.0838147919664748</v>
       </c>
       <c r="E9">
-        <v>-0.01689251013323131</v>
+        <v>0.02508808915556131</v>
       </c>
       <c r="F9">
-        <v>-0.006865798544671482</v>
+        <v>0.05299054728743321</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.102467829800791</v>
+        <v>-0.09538380609317057</v>
       </c>
       <c r="C10">
-        <v>-0.1781255333771396</v>
+        <v>-0.01770963062229538</v>
       </c>
       <c r="D10">
-        <v>-0.007934050375564333</v>
+        <v>0.1715819342021142</v>
       </c>
       <c r="E10">
-        <v>0.00739867086110792</v>
+        <v>-0.04063548361517305</v>
       </c>
       <c r="F10">
-        <v>-0.04672664338746408</v>
+        <v>-0.05376383464939245</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08038895584568904</v>
+        <v>-0.08737612822341698</v>
       </c>
       <c r="C11">
-        <v>0.05630637543707475</v>
+        <v>-0.01163936882014526</v>
       </c>
       <c r="D11">
-        <v>0.02683366587173761</v>
+        <v>-0.1145358661134007</v>
       </c>
       <c r="E11">
-        <v>-0.02060434588150519</v>
+        <v>0.04972593863168126</v>
       </c>
       <c r="F11">
-        <v>0.01176119484492089</v>
+        <v>0.01951856957193398</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08291892466886455</v>
+        <v>-0.09192906671071738</v>
       </c>
       <c r="C12">
-        <v>0.0807729360080937</v>
+        <v>-0.009251142310905684</v>
       </c>
       <c r="D12">
-        <v>0.03826323382650102</v>
+        <v>-0.1233686972031906</v>
       </c>
       <c r="E12">
-        <v>-0.0646303322347829</v>
+        <v>0.04871759174038768</v>
       </c>
       <c r="F12">
-        <v>-0.01736850269345656</v>
+        <v>0.01955177880633123</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03199574855325671</v>
+        <v>-0.04272998715823701</v>
       </c>
       <c r="C13">
-        <v>0.03348384040729604</v>
+        <v>-0.003776477852229417</v>
       </c>
       <c r="D13">
-        <v>0.008154137021461337</v>
+        <v>-0.04760700385169939</v>
       </c>
       <c r="E13">
-        <v>0.02046673738995378</v>
+        <v>-0.01114520914502904</v>
       </c>
       <c r="F13">
-        <v>-0.01001982821971985</v>
+        <v>0.01305698187987822</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03583449424103866</v>
+        <v>-0.02221836576819439</v>
       </c>
       <c r="C14">
-        <v>0.01850555270356512</v>
+        <v>-0.01431744743264411</v>
       </c>
       <c r="D14">
-        <v>-0.005531617712528967</v>
+        <v>-0.03129682595503067</v>
       </c>
       <c r="E14">
-        <v>-0.02114424420885184</v>
+        <v>0.01907444353112105</v>
       </c>
       <c r="F14">
-        <v>0.003903088577313838</v>
+        <v>0.01785604687078711</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01707957456076189</v>
+        <v>-0.03140214312470627</v>
       </c>
       <c r="C15">
-        <v>0.008773908607521547</v>
+        <v>-0.005437329970826373</v>
       </c>
       <c r="D15">
-        <v>0.01245136245109272</v>
+        <v>-0.04504038116497808</v>
       </c>
       <c r="E15">
-        <v>0.04493578044532882</v>
+        <v>0.009234065380273413</v>
       </c>
       <c r="F15">
-        <v>-0.01865864372762375</v>
+        <v>0.02962243468063246</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08732177888272147</v>
+        <v>-0.07311195201264226</v>
       </c>
       <c r="C16">
-        <v>0.06546579211921971</v>
+        <v>-0.003117945308351355</v>
       </c>
       <c r="D16">
-        <v>0.03055473709755013</v>
+        <v>-0.1181606846100549</v>
       </c>
       <c r="E16">
-        <v>-0.04429377203499242</v>
+        <v>0.06408796220772227</v>
       </c>
       <c r="F16">
-        <v>0.006215438847320523</v>
+        <v>0.02807102483592512</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02349005393643824</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003384025726603583</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01797387919874424</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.008487657410487673</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.0167190436146745</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04823187523597885</v>
+        <v>-0.06078341384581281</v>
       </c>
       <c r="C20">
-        <v>0.03036849142953483</v>
+        <v>-0.000712409799326391</v>
       </c>
       <c r="D20">
-        <v>-0.01652617288450529</v>
+        <v>-0.07453220913224771</v>
       </c>
       <c r="E20">
-        <v>0.0267173358823362</v>
+        <v>0.055760662758634</v>
       </c>
       <c r="F20">
-        <v>-0.007586300819177465</v>
+        <v>0.02680907532623826</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03200646263909641</v>
+        <v>-0.03867569310417807</v>
       </c>
       <c r="C21">
-        <v>0.01286046212668957</v>
+        <v>-0.006947437840621545</v>
       </c>
       <c r="D21">
-        <v>-0.02073356609450365</v>
+        <v>-0.03639108021165448</v>
       </c>
       <c r="E21">
-        <v>-0.01446596242623466</v>
+        <v>-0.007670653872091028</v>
       </c>
       <c r="F21">
-        <v>0.02440713437944552</v>
+        <v>-0.02086719486593483</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03041905999410195</v>
+        <v>-0.04343445879864691</v>
       </c>
       <c r="C22">
-        <v>-0.02071956212556267</v>
+        <v>-0.0004111323004732239</v>
       </c>
       <c r="D22">
-        <v>0.05486781139839912</v>
+        <v>9.206530317997104e-05</v>
       </c>
       <c r="E22">
-        <v>0.602280556610665</v>
+        <v>0.02916809123357645</v>
       </c>
       <c r="F22">
-        <v>-0.1760201076604451</v>
+        <v>-0.007094092001095374</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0306488272874516</v>
+        <v>-0.0434885231024076</v>
       </c>
       <c r="C23">
-        <v>-0.02020308565336735</v>
+        <v>-0.0004334666703353876</v>
       </c>
       <c r="D23">
-        <v>0.05610221782787785</v>
+        <v>-3.470807287669188e-05</v>
       </c>
       <c r="E23">
-        <v>0.60563148802714</v>
+        <v>0.02952788802305615</v>
       </c>
       <c r="F23">
-        <v>-0.1748527389242313</v>
+        <v>-0.006638839334903891</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08794792020027124</v>
+        <v>-0.07962273750564049</v>
       </c>
       <c r="C24">
-        <v>0.06340440051946107</v>
+        <v>-0.003379569324479775</v>
       </c>
       <c r="D24">
-        <v>0.01692130814322224</v>
+        <v>-0.1186179404287321</v>
       </c>
       <c r="E24">
-        <v>-0.03592343133651817</v>
+        <v>0.05189438920029474</v>
       </c>
       <c r="F24">
-        <v>-0.00144375545961441</v>
+        <v>0.02089847320394797</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09309353277936308</v>
+        <v>-0.08453443457812208</v>
       </c>
       <c r="C25">
-        <v>0.06124892412512108</v>
+        <v>-0.005471836948898925</v>
       </c>
       <c r="D25">
-        <v>0.03358811736224514</v>
+        <v>-0.1072140514943577</v>
       </c>
       <c r="E25">
-        <v>-0.06705191532547133</v>
+        <v>0.03474504810534999</v>
       </c>
       <c r="F25">
-        <v>-0.01233549370792903</v>
+        <v>0.02860836336854966</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03782004801612256</v>
+        <v>-0.05430300401432254</v>
       </c>
       <c r="C26">
-        <v>-0.01851568140536989</v>
+        <v>-0.01495980702077323</v>
       </c>
       <c r="D26">
-        <v>-0.01652431473382392</v>
+        <v>-0.0378485230818912</v>
       </c>
       <c r="E26">
-        <v>0.01349609127227542</v>
+        <v>0.02800519210308471</v>
       </c>
       <c r="F26">
-        <v>0.02723634518744562</v>
+        <v>-0.0126364051379071</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1093330125623064</v>
+        <v>-0.1437504723012679</v>
       </c>
       <c r="C28">
-        <v>-0.3187495100330791</v>
+        <v>-0.01610082775378075</v>
       </c>
       <c r="D28">
-        <v>0.01937328431206817</v>
+        <v>0.26576480451042</v>
       </c>
       <c r="E28">
-        <v>-0.03417206016620861</v>
+        <v>-0.0697267033557127</v>
       </c>
       <c r="F28">
-        <v>0.01224863339734491</v>
+        <v>0.02911017126649255</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02986639404753925</v>
+        <v>-0.0269152511136473</v>
       </c>
       <c r="C29">
-        <v>0.01418905172840493</v>
+        <v>-0.008768745112963291</v>
       </c>
       <c r="D29">
-        <v>0.002180361774240201</v>
+        <v>-0.03001094638287231</v>
       </c>
       <c r="E29">
-        <v>-0.03811584779252268</v>
+        <v>0.01203389892633319</v>
       </c>
       <c r="F29">
-        <v>-0.03166750149231614</v>
+        <v>-0.01387864483383191</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1037342814376852</v>
+        <v>-0.06232427584315006</v>
       </c>
       <c r="C30">
-        <v>0.08766588451633994</v>
+        <v>-0.004570727809870727</v>
       </c>
       <c r="D30">
-        <v>0.03794694401777204</v>
+        <v>-0.08671572021086714</v>
       </c>
       <c r="E30">
-        <v>-0.04688419917151515</v>
+        <v>0.0253656617950576</v>
       </c>
       <c r="F30">
-        <v>0.05518413017253581</v>
+        <v>0.1039834023664254</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02887829260102845</v>
+        <v>-0.04815907871501174</v>
       </c>
       <c r="C31">
-        <v>0.02954496814191173</v>
+        <v>-0.01495606426298606</v>
       </c>
       <c r="D31">
-        <v>-0.00240740115904557</v>
+        <v>-0.02798374535933207</v>
       </c>
       <c r="E31">
-        <v>0.003080306953808456</v>
+        <v>0.02743004724206092</v>
       </c>
       <c r="F31">
-        <v>-0.003171910683527191</v>
+        <v>-0.005477153556505894</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05894924390736356</v>
+        <v>-0.04789077720293487</v>
       </c>
       <c r="C32">
-        <v>0.01077824192943626</v>
+        <v>0.0002330972385829501</v>
       </c>
       <c r="D32">
-        <v>-0.01587527373342913</v>
+        <v>-0.03058081582580653</v>
       </c>
       <c r="E32">
-        <v>-0.06904496824450207</v>
+        <v>0.02985164064679973</v>
       </c>
       <c r="F32">
-        <v>0.07696431947563516</v>
+        <v>0.002051101518583016</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.096713247390058</v>
+        <v>-0.08954279867632491</v>
       </c>
       <c r="C33">
-        <v>0.06959701702619064</v>
+        <v>-0.00884868070831811</v>
       </c>
       <c r="D33">
-        <v>0.07818894754705294</v>
+        <v>-0.09603413341600707</v>
       </c>
       <c r="E33">
-        <v>-0.02599884902335029</v>
+        <v>0.04740598447514379</v>
       </c>
       <c r="F33">
-        <v>-0.01006950569412618</v>
+        <v>0.04049134536626058</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07540967004691176</v>
+        <v>-0.06726847207194532</v>
       </c>
       <c r="C34">
-        <v>0.05900669284281666</v>
+        <v>-0.01182465095902866</v>
       </c>
       <c r="D34">
-        <v>0.02215979980075382</v>
+        <v>-0.09882444197636299</v>
       </c>
       <c r="E34">
-        <v>-0.03825996430665554</v>
+        <v>0.03619631329502442</v>
       </c>
       <c r="F34">
-        <v>-0.002209927974609746</v>
+        <v>0.03842937355331134</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.009430123240375347</v>
+        <v>-0.0244239121628093</v>
       </c>
       <c r="C35">
-        <v>0.01360210537681251</v>
+        <v>-0.002464594510296272</v>
       </c>
       <c r="D35">
-        <v>0.004252375836242444</v>
+        <v>-0.0112295304322257</v>
       </c>
       <c r="E35">
-        <v>-0.004208172967113611</v>
+        <v>0.01108409137098099</v>
       </c>
       <c r="F35">
-        <v>-0.01354294650915486</v>
+        <v>0.009150188316975418</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02702596047042599</v>
+        <v>-0.02425515612022994</v>
       </c>
       <c r="C36">
-        <v>0.01147277635785265</v>
+        <v>-0.007254460146069782</v>
       </c>
       <c r="D36">
-        <v>0.007494216050942833</v>
+        <v>-0.03737200507749436</v>
       </c>
       <c r="E36">
-        <v>0.009062941719573584</v>
+        <v>0.01814222535803373</v>
       </c>
       <c r="F36">
-        <v>0.01302198376089433</v>
+        <v>0.01327446536694622</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.007252881745166271</v>
+        <v>-0.001437388175438623</v>
       </c>
       <c r="C38">
-        <v>0.008030258324044182</v>
+        <v>-0.0002280629891492924</v>
       </c>
       <c r="D38">
-        <v>0.006327845446768259</v>
+        <v>-0.0009726603840311812</v>
       </c>
       <c r="E38">
-        <v>0.02014173965936325</v>
+        <v>0.00116929610555689</v>
       </c>
       <c r="F38">
-        <v>-0.03325422774377261</v>
+        <v>-0.000952621382734718</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1273306585634995</v>
+        <v>-0.1076952459604762</v>
       </c>
       <c r="C39">
-        <v>0.1164779194851161</v>
+        <v>-0.01686739018140246</v>
       </c>
       <c r="D39">
-        <v>0.06573867026339535</v>
+        <v>-0.1551131542143515</v>
       </c>
       <c r="E39">
-        <v>-0.1452736858444341</v>
+        <v>0.0627035737703824</v>
       </c>
       <c r="F39">
-        <v>-0.0004904223902989936</v>
+        <v>0.0243357736641623</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.008757777117756691</v>
+        <v>-0.03711882496360727</v>
       </c>
       <c r="C40">
-        <v>0.02939607853532458</v>
+        <v>-0.007339544824014263</v>
       </c>
       <c r="D40">
-        <v>-0.009675042104477991</v>
+        <v>-0.03147870591757111</v>
       </c>
       <c r="E40">
-        <v>0.06566814608024624</v>
+        <v>0.003484141974602862</v>
       </c>
       <c r="F40">
-        <v>-0.03663450082737935</v>
+        <v>-0.0135727788557877</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02401201615668199</v>
+        <v>-0.02636810604208562</v>
       </c>
       <c r="C41">
-        <v>-0.001753751675916401</v>
+        <v>-0.006589209127677484</v>
       </c>
       <c r="D41">
-        <v>-0.006479326325863064</v>
+        <v>-0.01159610467521888</v>
       </c>
       <c r="E41">
-        <v>-0.007338923719424197</v>
+        <v>0.01273485942167641</v>
       </c>
       <c r="F41">
-        <v>-0.008376631451425937</v>
+        <v>-0.008643542098938587</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03612703085684525</v>
+        <v>-0.04047170952718575</v>
       </c>
       <c r="C43">
-        <v>0.004152752425993818</v>
+        <v>-0.006766053337542858</v>
       </c>
       <c r="D43">
-        <v>0.01618642810794223</v>
+        <v>-0.02106659463260696</v>
       </c>
       <c r="E43">
-        <v>-0.003211103885459224</v>
+        <v>0.02482922418203269</v>
       </c>
       <c r="F43">
-        <v>0.002856807844358695</v>
+        <v>-0.01340108094627725</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1298202015310805</v>
+        <v>-0.07597950821914443</v>
       </c>
       <c r="C44">
-        <v>0.1438875113692336</v>
+        <v>-0.02175091172781677</v>
       </c>
       <c r="D44">
-        <v>0.05449487431577277</v>
+        <v>-0.0946368039326803</v>
       </c>
       <c r="E44">
-        <v>0.0894600056587609</v>
+        <v>0.07589131582933374</v>
       </c>
       <c r="F44">
-        <v>-0.1131647622836886</v>
+        <v>0.1850484783110207</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01884038678830328</v>
+        <v>-0.02227657350245665</v>
       </c>
       <c r="C46">
-        <v>-0.01213736277310845</v>
+        <v>-0.00381517581905182</v>
       </c>
       <c r="D46">
-        <v>0.02001432986744575</v>
+        <v>-0.01182759116083999</v>
       </c>
       <c r="E46">
-        <v>0.02266350022438533</v>
+        <v>0.02357169451963955</v>
       </c>
       <c r="F46">
-        <v>-0.03079402002861399</v>
+        <v>0.0001089211344811719</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03727428684688752</v>
+        <v>-0.05166181203432154</v>
       </c>
       <c r="C47">
-        <v>0.02402778370096991</v>
+        <v>-0.003276755328529281</v>
       </c>
       <c r="D47">
-        <v>-0.004248204301088576</v>
+        <v>-0.01414127331980059</v>
       </c>
       <c r="E47">
-        <v>-0.006983511553257807</v>
+        <v>0.02226707005092928</v>
       </c>
       <c r="F47">
-        <v>-0.0004196900704250765</v>
+        <v>-0.04470287118650556</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.03548576235217493</v>
+        <v>-0.04734014186078715</v>
       </c>
       <c r="C48">
-        <v>-0.001372957436070379</v>
+        <v>-0.002837523842828794</v>
       </c>
       <c r="D48">
-        <v>0.007317360068045695</v>
+        <v>-0.04910097048285899</v>
       </c>
       <c r="E48">
-        <v>-0.007032210028863679</v>
+        <v>-0.00388976557732615</v>
       </c>
       <c r="F48">
-        <v>-0.002265687176315644</v>
+        <v>0.01009440841796145</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2272475613511543</v>
+        <v>-0.2027960738538269</v>
       </c>
       <c r="C49">
-        <v>-0.01101156051048697</v>
+        <v>-0.01774235611848223</v>
       </c>
       <c r="D49">
-        <v>-0.05072674587232413</v>
+        <v>0.01080836194782112</v>
       </c>
       <c r="E49">
-        <v>-0.01966038058138283</v>
+        <v>0.03270369799154885</v>
       </c>
       <c r="F49">
-        <v>-0.05421357547085551</v>
+        <v>0.0300991718192032</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03756056925376792</v>
+        <v>-0.04809380739514815</v>
       </c>
       <c r="C50">
-        <v>0.0235847205840751</v>
+        <v>-0.01109115086595948</v>
       </c>
       <c r="D50">
-        <v>-0.00797835337227666</v>
+        <v>-0.02671835159852981</v>
       </c>
       <c r="E50">
-        <v>-0.009766563136615666</v>
+        <v>0.02995241556961289</v>
       </c>
       <c r="F50">
-        <v>-0.001663660818405466</v>
+        <v>0.008569178544875884</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0115000084718963</v>
+        <v>-0.002175845374726262</v>
       </c>
       <c r="C51">
-        <v>-0.0165151428481543</v>
+        <v>-0.0005485147781694616</v>
       </c>
       <c r="D51">
-        <v>0.01432536441334772</v>
+        <v>0.002298321258360509</v>
       </c>
       <c r="E51">
-        <v>0.006895659927054354</v>
+        <v>-0.0001243352417708741</v>
       </c>
       <c r="F51">
-        <v>-0.01206359179705523</v>
+        <v>0.004754625547736667</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1067515950619766</v>
+        <v>-0.1448523594763751</v>
       </c>
       <c r="C52">
-        <v>0.08036314686422763</v>
+        <v>-0.01385397960037879</v>
       </c>
       <c r="D52">
-        <v>0.01761296769706885</v>
+        <v>-0.05144763785258612</v>
       </c>
       <c r="E52">
-        <v>-0.009530443480550361</v>
+        <v>0.02460417658533001</v>
       </c>
       <c r="F52">
-        <v>-0.01616833284511237</v>
+        <v>0.03344953239317505</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1620741662417935</v>
+        <v>-0.1739493507885386</v>
       </c>
       <c r="C53">
-        <v>0.03735953651619386</v>
+        <v>-0.01662867586494987</v>
       </c>
       <c r="D53">
-        <v>0.01210668500515427</v>
+        <v>-0.0120410395708794</v>
       </c>
       <c r="E53">
-        <v>0.02444616899645052</v>
+        <v>0.0358220745986841</v>
       </c>
       <c r="F53">
-        <v>-0.03547959791750115</v>
+        <v>0.0661700538556227</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04965356377974916</v>
+        <v>-0.02155564420293139</v>
       </c>
       <c r="C54">
-        <v>0.03679667184279522</v>
+        <v>-0.01229284165301116</v>
       </c>
       <c r="D54">
-        <v>0.001096367750385868</v>
+        <v>-0.03297692876242522</v>
       </c>
       <c r="E54">
-        <v>0.02395009857876981</v>
+        <v>0.0158371046149419</v>
       </c>
       <c r="F54">
-        <v>-0.004513267623808991</v>
+        <v>-0.005960702571262261</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08308200197116623</v>
+        <v>-0.1143213908838702</v>
       </c>
       <c r="C55">
-        <v>0.02801321456489875</v>
+        <v>-0.01545850107233477</v>
       </c>
       <c r="D55">
-        <v>0.05766075042889465</v>
+        <v>-0.01109849165205936</v>
       </c>
       <c r="E55">
-        <v>-0.02432201478904456</v>
+        <v>0.03040639730174611</v>
       </c>
       <c r="F55">
-        <v>-0.01179554811586858</v>
+        <v>0.04492561746506883</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1564489580459885</v>
+        <v>-0.1775558768566378</v>
       </c>
       <c r="C56">
-        <v>0.05182623017173554</v>
+        <v>-0.01412182823023573</v>
       </c>
       <c r="D56">
-        <v>0.01931020496822333</v>
+        <v>-0.007793427259464682</v>
       </c>
       <c r="E56">
-        <v>-0.01007103957226834</v>
+        <v>0.03988807693973795</v>
       </c>
       <c r="F56">
-        <v>-0.05605846274325237</v>
+        <v>0.04144266940455599</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0501680934581793</v>
+        <v>-0.04634593146496916</v>
       </c>
       <c r="C58">
-        <v>0.02047429556765388</v>
+        <v>-0.001636117252405618</v>
       </c>
       <c r="D58">
-        <v>-0.002315134848593688</v>
+        <v>-0.06604047343702599</v>
       </c>
       <c r="E58">
-        <v>0.05181892005079246</v>
+        <v>0.02420386670967741</v>
       </c>
       <c r="F58">
-        <v>-0.02183692180319335</v>
+        <v>-0.04386079300412774</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1738496248575421</v>
+        <v>-0.1726849746773304</v>
       </c>
       <c r="C59">
-        <v>-0.2536424390145833</v>
+        <v>-0.01696802569445965</v>
       </c>
       <c r="D59">
-        <v>0.03958312824315358</v>
+        <v>0.2232163505888631</v>
       </c>
       <c r="E59">
-        <v>-0.04593319709611079</v>
+        <v>-0.04968043238925914</v>
       </c>
       <c r="F59">
-        <v>-0.01254505325531852</v>
+        <v>-0.03248397901310699</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2746493327379468</v>
+        <v>-0.2358577048940059</v>
       </c>
       <c r="C60">
-        <v>0.1712653334173584</v>
+        <v>0.003900417070245566</v>
       </c>
       <c r="D60">
-        <v>-0.02912092931836448</v>
+        <v>-0.04805449012540057</v>
       </c>
       <c r="E60">
-        <v>-0.06674130590781795</v>
+        <v>0.007313981767236803</v>
       </c>
       <c r="F60">
-        <v>-0.1832469389254904</v>
+        <v>-0.03161015033452024</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1163809239122517</v>
+        <v>-0.08283275356240515</v>
       </c>
       <c r="C61">
-        <v>0.07306587560734093</v>
+        <v>-0.01302819053761184</v>
       </c>
       <c r="D61">
-        <v>0.04337438746581274</v>
+        <v>-0.1142785447717261</v>
       </c>
       <c r="E61">
-        <v>-0.08910371575357794</v>
+        <v>0.04261000212818947</v>
       </c>
       <c r="F61">
-        <v>-0.02794307523014553</v>
+        <v>0.01278357984902679</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1565892609008263</v>
+        <v>-0.1701051192194749</v>
       </c>
       <c r="C62">
-        <v>0.04282506854659164</v>
+        <v>-0.01786096771933463</v>
       </c>
       <c r="D62">
-        <v>0.02969870430783571</v>
+        <v>-0.01186844528363739</v>
       </c>
       <c r="E62">
-        <v>0.006951089556165839</v>
+        <v>0.03671939127015538</v>
       </c>
       <c r="F62">
-        <v>-0.04693008582747232</v>
+        <v>0.02241836074836425</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03628717764109392</v>
+        <v>-0.0423626928094125</v>
       </c>
       <c r="C63">
-        <v>-0.009878908740469549</v>
+        <v>-0.002925338139704864</v>
       </c>
       <c r="D63">
-        <v>0.008261101549398048</v>
+        <v>-0.05205005885352872</v>
       </c>
       <c r="E63">
-        <v>-0.001257323645781981</v>
+        <v>0.02232530887377446</v>
       </c>
       <c r="F63">
-        <v>0.04546773573915402</v>
+        <v>0.004695193989791315</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09510066650348069</v>
+        <v>-0.1116873773655846</v>
       </c>
       <c r="C64">
-        <v>0.01844996950720117</v>
+        <v>-0.01124900331453558</v>
       </c>
       <c r="D64">
-        <v>0.002257173292036947</v>
+        <v>-0.04388884799136519</v>
       </c>
       <c r="E64">
-        <v>-0.00810815840841405</v>
+        <v>0.02073234664528523</v>
       </c>
       <c r="F64">
-        <v>-0.0642741466928435</v>
+        <v>0.02550241277096677</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1149486241027773</v>
+        <v>-0.1461194037241834</v>
       </c>
       <c r="C65">
-        <v>-0.008493019159245512</v>
+        <v>-0.03128006545837842</v>
       </c>
       <c r="D65">
-        <v>0.0100963831017122</v>
+        <v>0.04339477074264424</v>
       </c>
       <c r="E65">
-        <v>-0.007523207719333383</v>
+        <v>-0.001279574420314783</v>
       </c>
       <c r="F65">
-        <v>0.06166459395711242</v>
+        <v>0.04851296003239301</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1439441741828107</v>
+        <v>-0.1287123893524503</v>
       </c>
       <c r="C66">
-        <v>0.12814518385917</v>
+        <v>-0.01470813609987218</v>
       </c>
       <c r="D66">
-        <v>0.05582480453300936</v>
+        <v>-0.1427276672693651</v>
       </c>
       <c r="E66">
-        <v>-0.121016903546035</v>
+        <v>0.06931936114713125</v>
       </c>
       <c r="F66">
-        <v>-0.0210184199902974</v>
+        <v>0.02983631840371913</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0657496309824184</v>
+        <v>-0.06197347316606568</v>
       </c>
       <c r="C67">
-        <v>0.04549296674753065</v>
+        <v>-0.003224254432206902</v>
       </c>
       <c r="D67">
-        <v>0.08511291337701261</v>
+        <v>-0.05343356833899738</v>
       </c>
       <c r="E67">
-        <v>0.0182309684496868</v>
+        <v>0.01740477869827318</v>
       </c>
       <c r="F67">
-        <v>-0.02604972290396446</v>
+        <v>-0.04104613556617346</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.09584155861188649</v>
+        <v>-0.1170973081809192</v>
       </c>
       <c r="C68">
-        <v>-0.2679852072053025</v>
+        <v>-0.02679170602119717</v>
       </c>
       <c r="D68">
-        <v>0.006335622295524249</v>
+        <v>0.2614217559136938</v>
       </c>
       <c r="E68">
-        <v>-0.04182591423546203</v>
+        <v>-0.08806088187136303</v>
       </c>
       <c r="F68">
-        <v>0.03512135477633815</v>
+        <v>0.03245774097292793</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03285812934136206</v>
+        <v>-0.03926033384965793</v>
       </c>
       <c r="C69">
-        <v>-0.00508195702248164</v>
+        <v>-0.0009720772673310388</v>
       </c>
       <c r="D69">
-        <v>0.03289199837289511</v>
+        <v>-0.009772614573842658</v>
       </c>
       <c r="E69">
-        <v>0.0007396200745326029</v>
+        <v>0.02414785491753605</v>
       </c>
       <c r="F69">
-        <v>-0.01673177951075016</v>
+        <v>-0.01071690813701831</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0319553473403198</v>
+        <v>-0.06232630257852537</v>
       </c>
       <c r="C70">
-        <v>-0.00699354905524147</v>
+        <v>0.02838710613699989</v>
       </c>
       <c r="D70">
-        <v>0.04229917805332257</v>
+        <v>-0.0301650552050061</v>
       </c>
       <c r="E70">
-        <v>-0.03940933949085544</v>
+        <v>-0.05111008319851494</v>
       </c>
       <c r="F70">
-        <v>-0.03478260227882207</v>
+        <v>-0.2751797852419344</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1121017228614383</v>
+        <v>-0.1363909520894036</v>
       </c>
       <c r="C71">
-        <v>-0.2899564871179147</v>
+        <v>-0.03105562010266003</v>
       </c>
       <c r="D71">
-        <v>0.02110286063849214</v>
+        <v>0.276453440835386</v>
       </c>
       <c r="E71">
-        <v>-0.03371144746993567</v>
+        <v>-0.09641431706099318</v>
       </c>
       <c r="F71">
-        <v>-0.01173428417701629</v>
+        <v>0.03825483286986856</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1433651420924641</v>
+        <v>-0.140940311630811</v>
       </c>
       <c r="C72">
-        <v>-0.002152170339438337</v>
+        <v>-0.02476937007714049</v>
       </c>
       <c r="D72">
-        <v>0.001928269885019251</v>
+        <v>-0.004610815950051562</v>
       </c>
       <c r="E72">
-        <v>0.01106459735355473</v>
+        <v>0.04517216022765133</v>
       </c>
       <c r="F72">
-        <v>0.008088437378387325</v>
+        <v>0.02399223696667855</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2264961782019914</v>
+        <v>-0.203246009853416</v>
       </c>
       <c r="C73">
-        <v>0.0322850606466495</v>
+        <v>-0.01178170208906884</v>
       </c>
       <c r="D73">
-        <v>0.04957471003067075</v>
+        <v>-0.01623036820863889</v>
       </c>
       <c r="E73">
-        <v>-0.0664646052218661</v>
+        <v>0.0629038023912054</v>
       </c>
       <c r="F73">
-        <v>-0.1195582806749818</v>
+        <v>0.03196514812666302</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1167271093604469</v>
+        <v>-0.09459427872619389</v>
       </c>
       <c r="C74">
-        <v>0.05341520217723232</v>
+        <v>-0.01226253291124608</v>
       </c>
       <c r="D74">
-        <v>0.02605258856009461</v>
+        <v>-0.02090605219595581</v>
       </c>
       <c r="E74">
-        <v>0.008011958156434889</v>
+        <v>0.04855034661615417</v>
       </c>
       <c r="F74">
-        <v>-0.02402326364655862</v>
+        <v>0.04857334750653305</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1186864798646755</v>
+        <v>-0.1295037448615793</v>
       </c>
       <c r="C75">
-        <v>0.05119345872696307</v>
+        <v>-0.02655386270749131</v>
       </c>
       <c r="D75">
-        <v>0.006351526867687378</v>
+        <v>-0.03448186290727752</v>
       </c>
       <c r="E75">
-        <v>0.01087096463880406</v>
+        <v>0.0607032817317158</v>
       </c>
       <c r="F75">
-        <v>0.004976089247545978</v>
+        <v>0.01331203451979527</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01932288971383741</v>
+        <v>-0.003480789909050601</v>
       </c>
       <c r="C76">
-        <v>-0.01655543363688093</v>
+        <v>-0.0008279483265501596</v>
       </c>
       <c r="D76">
-        <v>0.01138247729608476</v>
+        <v>0.002435297296354679</v>
       </c>
       <c r="E76">
-        <v>-0.007642733877244505</v>
+        <v>0.0003719682601324446</v>
       </c>
       <c r="F76">
-        <v>-0.01928240388893851</v>
+        <v>0.003977381871981506</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07335235409601139</v>
+        <v>-0.07841170518397675</v>
       </c>
       <c r="C77">
-        <v>0.05998504773527897</v>
+        <v>-0.009248287272893094</v>
       </c>
       <c r="D77">
-        <v>-0.01565074177956639</v>
+        <v>-0.1159433459088617</v>
       </c>
       <c r="E77">
-        <v>-0.0007450904968073187</v>
+        <v>0.03838482667358497</v>
       </c>
       <c r="F77">
-        <v>-0.04985173825586968</v>
+        <v>0.03163645614797247</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1199379562427592</v>
+        <v>-0.1042834236648685</v>
       </c>
       <c r="C78">
-        <v>0.0407410885588443</v>
+        <v>-0.04070508408021115</v>
       </c>
       <c r="D78">
-        <v>0.08618171298360559</v>
+        <v>-0.1158044192642662</v>
       </c>
       <c r="E78">
-        <v>0.3275568944845482</v>
+        <v>0.08128406781862786</v>
       </c>
       <c r="F78">
-        <v>0.2781875569638669</v>
+        <v>0.06998379464208695</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1343926877020099</v>
+        <v>-0.1640801834064538</v>
       </c>
       <c r="C79">
-        <v>0.04401979186143361</v>
+        <v>-0.02061693156622114</v>
       </c>
       <c r="D79">
-        <v>-0.01451744097430059</v>
+        <v>-0.01944376707565394</v>
       </c>
       <c r="E79">
-        <v>0.001292880569517403</v>
+        <v>0.04973786231869586</v>
       </c>
       <c r="F79">
-        <v>-0.02604023901483349</v>
+        <v>0.004330174834337693</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08220797572560831</v>
+        <v>-0.08074961463135352</v>
       </c>
       <c r="C80">
-        <v>0.0771747400399232</v>
+        <v>0.0009474067524953518</v>
       </c>
       <c r="D80">
-        <v>0.07931579797805911</v>
+        <v>-0.0575887652518252</v>
       </c>
       <c r="E80">
-        <v>-0.02693546396759661</v>
+        <v>0.03691738455872362</v>
       </c>
       <c r="F80">
-        <v>-0.004899867939928648</v>
+        <v>-0.01574404250310894</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1393359783275135</v>
+        <v>-0.1233368310922496</v>
       </c>
       <c r="C81">
-        <v>0.06572361597370055</v>
+        <v>-0.03038565591600284</v>
       </c>
       <c r="D81">
-        <v>0.0142669603054534</v>
+        <v>-0.01881393100346893</v>
       </c>
       <c r="E81">
-        <v>0.01005144730601011</v>
+        <v>0.05994017595313429</v>
       </c>
       <c r="F81">
-        <v>-0.02022072426423029</v>
+        <v>0.005978129781783251</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1583386562320852</v>
+        <v>-0.1641489037226994</v>
       </c>
       <c r="C82">
-        <v>0.04489813247736568</v>
+        <v>-0.02216084096424338</v>
       </c>
       <c r="D82">
-        <v>0.03163190759467145</v>
+        <v>-0.01404204770765569</v>
       </c>
       <c r="E82">
-        <v>-0.02513602453522615</v>
+        <v>0.03588713844861667</v>
       </c>
       <c r="F82">
-        <v>-0.04154237436520181</v>
+        <v>0.06638835901766152</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.09174000345253452</v>
+        <v>-0.0623568485166288</v>
       </c>
       <c r="C83">
-        <v>0.1195226040870234</v>
+        <v>-0.003217633956736433</v>
       </c>
       <c r="D83">
-        <v>-0.0130724791771372</v>
+        <v>-0.05087890029423291</v>
       </c>
       <c r="E83">
-        <v>0.0308663203771134</v>
+        <v>0.005405392454848088</v>
       </c>
       <c r="F83">
-        <v>0.03238198817620219</v>
+        <v>-0.04293679480560003</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06643762285563495</v>
+        <v>-0.05901522064561402</v>
       </c>
       <c r="C84">
-        <v>-0.01536763938568653</v>
+        <v>-0.01090817747549087</v>
       </c>
       <c r="D84">
-        <v>-0.008020514707175462</v>
+        <v>-0.0646986799121101</v>
       </c>
       <c r="E84">
-        <v>-0.06724299786024363</v>
+        <v>0.003376270362475121</v>
       </c>
       <c r="F84">
-        <v>-0.06088964121451487</v>
+        <v>0.01141504560803431</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1258060156877537</v>
+        <v>-0.1390757198656419</v>
       </c>
       <c r="C85">
-        <v>0.03558689102910381</v>
+        <v>-0.02619057642986773</v>
       </c>
       <c r="D85">
-        <v>0.01093038176297403</v>
+        <v>-0.0151685760369455</v>
       </c>
       <c r="E85">
-        <v>-0.0002477228051435275</v>
+        <v>0.04150408320141341</v>
       </c>
       <c r="F85">
-        <v>-0.03996508718800793</v>
+        <v>0.04564769934229164</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1604484521048187</v>
+        <v>-0.09466719610495354</v>
       </c>
       <c r="C86">
-        <v>0.05243960452189517</v>
+        <v>0.006777085965594161</v>
       </c>
       <c r="D86">
-        <v>-0.9357017341752222</v>
+        <v>-0.02282770450026196</v>
       </c>
       <c r="E86">
-        <v>0.06528027529350548</v>
+        <v>0.1501505889847979</v>
       </c>
       <c r="F86">
-        <v>0.04175409636216924</v>
+        <v>-0.8700680154369326</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1225738704165015</v>
+        <v>-0.09601262915456321</v>
       </c>
       <c r="C87">
-        <v>0.10292504532871</v>
+        <v>-0.02220181802721601</v>
       </c>
       <c r="D87">
-        <v>0.01346821821960299</v>
+        <v>-0.0898499535367577</v>
       </c>
       <c r="E87">
-        <v>-0.003136380850449398</v>
+        <v>-0.05382684477455513</v>
       </c>
       <c r="F87">
-        <v>-0.03736694692314187</v>
+        <v>0.08212078092062218</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05187682853983342</v>
+        <v>-0.06083825253603483</v>
       </c>
       <c r="C88">
-        <v>0.03040980813654358</v>
+        <v>-0.002784959139464021</v>
       </c>
       <c r="D88">
-        <v>0.02313329073057232</v>
+        <v>-0.05383246078274427</v>
       </c>
       <c r="E88">
-        <v>-0.0575383088752212</v>
+        <v>0.0276486543495917</v>
       </c>
       <c r="F88">
-        <v>-0.003302005641989186</v>
+        <v>0.008272023678884749</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1622415880185578</v>
+        <v>-0.1362009876093121</v>
       </c>
       <c r="C89">
-        <v>-0.3623327557720985</v>
+        <v>-0.009326972756738711</v>
       </c>
       <c r="D89">
-        <v>0.01988867598797381</v>
+        <v>0.2549068729173177</v>
       </c>
       <c r="E89">
-        <v>0.03756728125505068</v>
+        <v>-0.09252366944733895</v>
       </c>
       <c r="F89">
-        <v>-0.02317103377442979</v>
+        <v>0.01691066334268593</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1244196774267899</v>
+        <v>-0.1477100165261414</v>
       </c>
       <c r="C90">
-        <v>-0.273958973337769</v>
+        <v>-0.02683323702203408</v>
       </c>
       <c r="D90">
-        <v>0.01205778825421587</v>
+        <v>0.2665438711542278</v>
       </c>
       <c r="E90">
-        <v>-0.05208948973379394</v>
+        <v>-0.1091577589020873</v>
       </c>
       <c r="F90">
-        <v>-0.01055231107473622</v>
+        <v>0.0211335536806938</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08393994230378031</v>
+        <v>-0.1194871805111907</v>
       </c>
       <c r="C91">
-        <v>0.04197814535671553</v>
+        <v>-0.01685598927839293</v>
       </c>
       <c r="D91">
-        <v>-0.01390028613489123</v>
+        <v>0.007968118764393524</v>
       </c>
       <c r="E91">
-        <v>0.0009206336209812247</v>
+        <v>0.05749688916435131</v>
       </c>
       <c r="F91">
-        <v>-0.03105949817404682</v>
+        <v>-0.01729008421311246</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1386729963626907</v>
+        <v>-0.1505650024923997</v>
       </c>
       <c r="C92">
-        <v>-0.3219074540493129</v>
+        <v>-0.01857722323184637</v>
       </c>
       <c r="D92">
-        <v>0.01607949088040935</v>
+        <v>0.2949397249309202</v>
       </c>
       <c r="E92">
-        <v>0.01242625735266712</v>
+        <v>-0.105036192294239</v>
       </c>
       <c r="F92">
-        <v>0.0039723790116311</v>
+        <v>0.01612158222257298</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1269087721186556</v>
+        <v>-0.1519965804024942</v>
       </c>
       <c r="C93">
-        <v>-0.321898072879353</v>
+        <v>-0.02284072211202992</v>
       </c>
       <c r="D93">
-        <v>-0.005084342138867411</v>
+        <v>0.2660612862538126</v>
       </c>
       <c r="E93">
-        <v>-0.07936492103982316</v>
+        <v>-0.0762542354348798</v>
       </c>
       <c r="F93">
-        <v>-0.0202804494343637</v>
+        <v>0.0152936962650753</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1391696138989447</v>
+        <v>-0.1328320024589741</v>
       </c>
       <c r="C94">
-        <v>0.05022823918487335</v>
+        <v>-0.02380207321438965</v>
       </c>
       <c r="D94">
-        <v>0.04206002513208246</v>
+        <v>-0.04595291283831207</v>
       </c>
       <c r="E94">
-        <v>0.02108328593261582</v>
+        <v>0.06114204921034807</v>
       </c>
       <c r="F94">
-        <v>-0.02220059179310234</v>
+        <v>0.03170473973491136</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1152266472570622</v>
+        <v>-0.1254339494723495</v>
       </c>
       <c r="C95">
-        <v>0.02203120269515126</v>
+        <v>-0.005199066028216582</v>
       </c>
       <c r="D95">
-        <v>0.02737918234891742</v>
+        <v>-0.08934407616765969</v>
       </c>
       <c r="E95">
-        <v>0.02940995597106253</v>
+        <v>0.04430984810650836</v>
       </c>
       <c r="F95">
-        <v>-0.04638215533410879</v>
+        <v>-0.01436009808470376</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01372784991313755</v>
+        <v>-0.09893170701963819</v>
       </c>
       <c r="C96">
-        <v>0.0007417249467217706</v>
+        <v>0.9888084746961644</v>
       </c>
       <c r="D96">
-        <v>-0.002099162196237399</v>
+        <v>0.03314818233623775</v>
       </c>
       <c r="E96">
-        <v>0.007685968024184715</v>
+        <v>0.05845176586592854</v>
       </c>
       <c r="F96">
-        <v>0.003684824115560577</v>
+        <v>0.04635727518198002</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1770144828095045</v>
+        <v>-0.1890926708886992</v>
       </c>
       <c r="C97">
-        <v>0.04406554510438453</v>
+        <v>0.01062916807910423</v>
       </c>
       <c r="D97">
-        <v>0.05365215730976067</v>
+        <v>0.008475992491465209</v>
       </c>
       <c r="E97">
-        <v>0.1289212446259148</v>
+        <v>0.01747632596293474</v>
       </c>
       <c r="F97">
-        <v>0.8519658444362329</v>
+        <v>-0.1576454810122094</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2419565109253751</v>
+        <v>-0.2052398577957416</v>
       </c>
       <c r="C98">
-        <v>-0.0002947815577520645</v>
+        <v>-0.007023525980783748</v>
       </c>
       <c r="D98">
-        <v>-0.01395171018246435</v>
+        <v>-0.01003869507174274</v>
       </c>
       <c r="E98">
-        <v>0.08637475316140997</v>
+        <v>-0.09874709666004128</v>
       </c>
       <c r="F98">
-        <v>-0.02020244325381066</v>
+        <v>-0.1110197794794501</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04048670984301113</v>
+        <v>-0.05556942232601129</v>
       </c>
       <c r="C99">
-        <v>-0.0184590607892695</v>
+        <v>0.003924667510170963</v>
       </c>
       <c r="D99">
-        <v>0.03644591996998359</v>
+        <v>-0.03623768049009747</v>
       </c>
       <c r="E99">
-        <v>0.02294202467194176</v>
+        <v>0.02740161776865301</v>
       </c>
       <c r="F99">
-        <v>-0.009461290266993588</v>
+        <v>0.002901842412071021</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.04254852929021913</v>
+        <v>-0.1220963627207618</v>
       </c>
       <c r="C100">
-        <v>0.08255058161582167</v>
+        <v>0.0517353332488371</v>
       </c>
       <c r="D100">
-        <v>0.1990127506215353</v>
+        <v>-0.3500889978363866</v>
       </c>
       <c r="E100">
-        <v>-0.04490357576921359</v>
+        <v>-0.8930363791206867</v>
       </c>
       <c r="F100">
-        <v>0.04972797826673546</v>
+        <v>-0.072136779885419</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0295018484335078</v>
+        <v>-0.02684685256367248</v>
       </c>
       <c r="C101">
-        <v>0.01464424143504422</v>
+        <v>-0.008775580193746208</v>
       </c>
       <c r="D101">
-        <v>0.002898304266715495</v>
+        <v>-0.02971822041007225</v>
       </c>
       <c r="E101">
-        <v>-0.03883470976628405</v>
+        <v>0.01153208962207507</v>
       </c>
       <c r="F101">
-        <v>-0.0314333208411305</v>
+        <v>-0.01568975123177965</v>
       </c>
     </row>
     <row r="102" spans="1:6">
